--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-observation-vitalsigns.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-observation-vitalsigns.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="451">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T22:57:55+00:00</t>
+    <t>2022-09-09T22:32:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -296,7 +296,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -1155,6 +1155,10 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5504,13 +5508,13 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>353</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5561,7 +5565,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5585,7 +5589,7 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5596,7 +5600,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5625,7 +5629,7 @@
         <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>140</v>
@@ -5678,7 +5682,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5702,7 +5706,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5713,11 +5717,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5739,10 +5743,10 @@
         <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
@@ -5797,7 +5801,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5832,7 +5836,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5855,13 +5859,13 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5912,7 +5916,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5921,7 +5925,7 @@
         <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>103</v>
@@ -5933,10 +5937,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5947,7 +5951,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5970,13 +5974,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6027,7 +6031,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6036,7 +6040,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6048,10 +6052,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6062,7 +6066,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6088,16 +6092,16 @@
         <v>189</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
@@ -6125,10 +6129,10 @@
         <v>115</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -6146,7 +6150,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6164,10 +6168,10 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>297</v>
@@ -6181,7 +6185,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6207,16 +6211,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6244,10 +6248,10 @@
         <v>311</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6265,7 +6269,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6283,10 +6287,10 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>297</v>
@@ -6300,7 +6304,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6323,17 +6327,17 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6382,7 +6386,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6406,7 +6410,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6417,7 +6421,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6440,13 +6444,13 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>353</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6497,7 +6501,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6518,10 +6522,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6532,7 +6536,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6555,16 +6559,16 @@
         <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6614,7 +6618,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6635,10 +6639,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6649,7 +6653,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6672,16 +6676,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6731,7 +6735,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6752,10 +6756,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6766,7 +6770,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6792,16 +6796,16 @@
         <v>344</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -6850,7 +6854,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6871,10 +6875,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6885,7 +6889,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6908,13 +6912,13 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>353</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6965,7 +6969,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6989,7 +6993,7 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7000,7 +7004,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7029,7 +7033,7 @@
         <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>140</v>
@@ -7082,7 +7086,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7106,7 +7110,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7117,11 +7121,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7143,10 +7147,10 @@
         <v>137</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
@@ -7201,7 +7205,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7236,7 +7240,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7262,13 +7266,13 @@
         <v>189</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>202</v>
@@ -7299,10 +7303,10 @@
         <v>311</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
@@ -7320,7 +7324,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>91</v>
@@ -7338,7 +7342,7 @@
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>206</v>
@@ -7355,7 +7359,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7381,13 +7385,13 @@
         <v>267</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>271</v>
@@ -7439,7 +7443,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7457,7 +7461,7 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>274</v>
@@ -7474,7 +7478,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7500,13 +7504,13 @@
         <v>189</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>281</v>
@@ -7558,7 +7562,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7593,7 +7597,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7622,13 +7626,13 @@
         <v>289</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7677,7 +7681,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7712,7 +7716,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7738,16 +7742,16 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7796,7 +7800,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
